--- a/medicine/Enfance/Virginie_Vertonghen/Virginie_Vertonghen.xlsx
+++ b/medicine/Enfance/Virginie_Vertonghen/Virginie_Vertonghen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginie Vertonghen, née le 22 avril 1976 à Namur, est une dessinatrice belge spécialisée dans les livres pour enfants.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virginie Vertonghen naît le 22 avril 1976 à Namur[1]. Elle passe par les beaux-arts de cette ville ainsi que par l'École supérieure des arts Saint-Luc de Liège[2]. Elle illustre dans les années 2000 des livres pour la jeunesse dont cinq avec des textes de Christian Merveille publiés aux éditions Mijade[3], puis des bandes dessinées, travaillant, de 2008[4] à 2011, sur La Vavache, une bande dessinée pour les tout petits, sans bulle et sans texte, dans la collection « Puceron » aux éditions Dupuis , sur un scénario de Carine De Brab[5],[6],[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virginie Vertonghen naît le 22 avril 1976 à Namur. Elle passe par les beaux-arts de cette ville ainsi que par l'École supérieure des arts Saint-Luc de Liège. Elle illustre dans les années 2000 des livres pour la jeunesse dont cinq avec des textes de Christian Merveille publiés aux éditions Mijade, puis des bandes dessinées, travaillant, de 2008 à 2011, sur La Vavache, une bande dessinée pour les tout petits, sans bulle et sans texte, dans la collection « Puceron » aux éditions Dupuis , sur un scénario de Carine De Brab.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle réside à Éghezée en 2010[8], puis Waterloo en 2023[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle réside à Éghezée en 2010, puis Waterloo en 2023.
 </t>
         </is>
       </c>
@@ -575,22 +591,99 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres jeunesse illustrés
-Christian Merveille, Ne sors pas, petit cochon !, Namur, Mijade, 2000  (ISBN 2871420351).
+          <t>Livres jeunesse illustrés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Christian Merveille, Ne sors pas, petit cochon !, Namur, Mijade, 2000  (ISBN 2871420351).
 Christian Merveille, Et alors, le loup ?, Namur, Mijade, 2001  (ISBN 2871423032).
 Christian Merveille, Mais pourquoi le bœuf ?, Namur, Mijade, 2002  (ISBN 2871423369).
 Christian Merveille, C'est moi maman !, Namur, Mijade, 2006  (ISBN 2871424985).
-Christian Merveille, C'est moi papa !, Namur, Mijade, 2006  (ISBN 2871424934).
-Bande dessinée jeunesse
-La Vavache
-1. Plif ! Plaf ! Plouf ![10], Dupuis coll. « Puceron », Marcinelle, février 2008Scénario : Carine De Brab - Dessin : Virginie Vertonghen - Couleurs : Veerle Swinnen -  (ISBN 978-2-8001-4153-4)
+Christian Merveille, C'est moi papa !, Namur, Mijade, 2006  (ISBN 2871424934).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Virginie_Vertonghen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virginie_Vertonghen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Vavache
+1. Plif ! Plaf ! Plouf !, Dupuis coll. « Puceron », Marcinelle, février 2008Scénario : Carine De Brab - Dessin : Virginie Vertonghen - Couleurs : Veerle Swinnen -  (ISBN 978-2-8001-4153-4)
 2. Tagada tsoin tsoin, Dupuis coll. « Puceron », Marcinelle, septembre 2008Scénario : Carine De Brab - Dessin : Virginie Vertonghen - Couleurs : Veerle Swinnen -  (ISBN 978-2-8001-4154-1)
 3. Cousin pinpin, Dupuis coll. « Puceron », Marcinelle, 3 avril 2009Scénario : Carine De Brab - Dessin : Virginie Vertonghen - Couleurs : Veerle Swinnen -  (ISBN 978-2-8001-4393-4)
 4. Le Mourf, Dupuis coll. « Puceron », Marcinelle, 12 février 2010Scénario : Carine De Brab - Dessin : Virginie Vertonghen - Couleurs : Veerle Swinnen -  (ISBN 978-2-8001-4675-1)
 Le Trésor de Marcinelle
-mini album, supplément gratuit au journal Spirou no 3795 du 5 janvier 2011[11],[4].
-Collectifs
-Folklore wallon en bulles[12], Dricot, Bressoux, février 2010Scénario : collectif - Dessin : collectif dont Virginie Vertonghen -  (ISBN 978-2-87095-389-1)Présentation de 31 groupes folkloriques par Francis Carin, Michel Constant, Jacques Denoël, Daniel Desorgher, Didgé, Bruno Di Sano, Hachel, Marc Hardy, Antonio Lapone, Claude Laverdure, Malik, Alain Maury, Peral, Michel Pierret, Jean-Claude Servais, Alain Sikorski, Jean-Marc Stalner, Stibane, André Taymans, Georges Van Linthout, Marco Venanzi, François Walthéry et Marc Wasterlain.</t>
+mini album, supplément gratuit au journal Spirou no 3795 du 5 janvier 2011,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Virginie_Vertonghen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Virginie_Vertonghen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bande dessinée jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Folklore wallon en bulles, Dricot, Bressoux, février 2010Scénario : collectif - Dessin : collectif dont Virginie Vertonghen -  (ISBN 978-2-87095-389-1)Présentation de 31 groupes folkloriques par Francis Carin, Michel Constant, Jacques Denoël, Daniel Desorgher, Didgé, Bruno Di Sano, Hachel, Marc Hardy, Antonio Lapone, Claude Laverdure, Malik, Alain Maury, Peral, Michel Pierret, Jean-Claude Servais, Alain Sikorski, Jean-Marc Stalner, Stibane, André Taymans, Georges Van Linthout, Marco Venanzi, François Walthéry et Marc Wasterlain.</t>
         </is>
       </c>
     </row>
